--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.523724666666666</v>
+        <v>0.8986206666666666</v>
       </c>
       <c r="H2">
-        <v>13.571174</v>
+        <v>2.695862</v>
       </c>
       <c r="I2">
-        <v>0.4806607624766543</v>
+        <v>0.1661804693926261</v>
       </c>
       <c r="J2">
-        <v>0.4806607624766543</v>
+        <v>0.1661804693926262</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>91.67302333333333</v>
+        <v>4.230734666666667</v>
       </c>
       <c r="N2">
-        <v>275.01907</v>
+        <v>12.692204</v>
       </c>
       <c r="O2">
-        <v>0.8966431814716052</v>
+        <v>0.3081346507358854</v>
       </c>
       <c r="P2">
-        <v>0.896643181471605</v>
+        <v>0.3081346507358855</v>
       </c>
       <c r="Q2">
-        <v>414.7035169209088</v>
+        <v>3.801825606649778</v>
       </c>
       <c r="R2">
-        <v>3732.33165228818</v>
+        <v>34.216430459848</v>
       </c>
       <c r="S2">
-        <v>0.4309811952756349</v>
+        <v>0.05120596089542235</v>
       </c>
       <c r="T2">
-        <v>0.4309811952756348</v>
+        <v>0.05120596089542236</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.523724666666666</v>
+        <v>0.8986206666666666</v>
       </c>
       <c r="H3">
-        <v>13.571174</v>
+        <v>2.695862</v>
       </c>
       <c r="I3">
-        <v>0.4806607624766543</v>
+        <v>0.1661804693926261</v>
       </c>
       <c r="J3">
-        <v>0.4806607624766543</v>
+        <v>0.1661804693926262</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>25.645158</v>
       </c>
       <c r="O3">
-        <v>0.08361076945850333</v>
+        <v>0.6225996527787135</v>
       </c>
       <c r="P3">
-        <v>0.08361076945850332</v>
+        <v>0.6225996527787135</v>
       </c>
       <c r="Q3">
-        <v>38.670544608388</v>
+        <v>7.681756326244</v>
       </c>
       <c r="R3">
-        <v>348.034901475492</v>
+        <v>69.135806936196</v>
       </c>
       <c r="S3">
-        <v>0.04018841619918398</v>
+        <v>0.1034639025424527</v>
       </c>
       <c r="T3">
-        <v>0.04018841619918397</v>
+        <v>0.1034639025424527</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.523724666666666</v>
+        <v>0.8986206666666666</v>
       </c>
       <c r="H4">
-        <v>13.571174</v>
+        <v>2.695862</v>
       </c>
       <c r="I4">
-        <v>0.4806607624766543</v>
+        <v>0.1661804693926261</v>
       </c>
       <c r="J4">
-        <v>0.4806607624766543</v>
+        <v>0.1661804693926262</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.018841</v>
+        <v>0.9510283333333334</v>
       </c>
       <c r="N4">
-        <v>6.056523</v>
+        <v>2.853085</v>
       </c>
       <c r="O4">
-        <v>0.01974604906989159</v>
+        <v>0.0692656964854011</v>
       </c>
       <c r="P4">
-        <v>0.01974604906989159</v>
+        <v>0.0692656964854011</v>
       </c>
       <c r="Q4">
-        <v>9.132680829778</v>
+        <v>0.8546137149188888</v>
       </c>
       <c r="R4">
-        <v>82.19412746800199</v>
+        <v>7.691523434270001</v>
       </c>
       <c r="S4">
-        <v>0.009491151001835525</v>
+        <v>0.01151060595475113</v>
       </c>
       <c r="T4">
-        <v>0.009491151001835523</v>
+        <v>0.01151060595475113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>6.328443</v>
       </c>
       <c r="I5">
-        <v>0.2241393587371326</v>
+        <v>0.3901029163453022</v>
       </c>
       <c r="J5">
-        <v>0.2241393587371326</v>
+        <v>0.3901029163453023</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>91.67302333333333</v>
+        <v>4.230734666666667</v>
       </c>
       <c r="N5">
-        <v>275.01907</v>
+        <v>12.692204</v>
       </c>
       <c r="O5">
-        <v>0.8966431814716052</v>
+        <v>0.3081346507358854</v>
       </c>
       <c r="P5">
-        <v>0.896643181471605</v>
+        <v>0.3081346507358855</v>
       </c>
       <c r="Q5">
-        <v>193.3825009342233</v>
+        <v>8.924654395374667</v>
       </c>
       <c r="R5">
-        <v>1740.44250840801</v>
+        <v>80.32188955837201</v>
       </c>
       <c r="S5">
-        <v>0.200973027711068</v>
+        <v>0.12020422587911</v>
       </c>
       <c r="T5">
-        <v>0.2009730277110679</v>
+        <v>0.1202042258791101</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>6.328443</v>
       </c>
       <c r="I6">
-        <v>0.2241393587371326</v>
+        <v>0.3901029163453022</v>
       </c>
       <c r="J6">
-        <v>0.2241393587371326</v>
+        <v>0.3901029163453023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>25.645158</v>
       </c>
       <c r="O6">
-        <v>0.08361076945850333</v>
+        <v>0.6225996527787135</v>
       </c>
       <c r="P6">
-        <v>0.08361076945850332</v>
+        <v>0.6225996527787135</v>
       </c>
       <c r="Q6">
         <v>18.032657847666</v>
@@ -818,10 +818,10 @@
         <v>162.293920628994</v>
       </c>
       <c r="S6">
-        <v>0.01874046424994717</v>
+        <v>0.2428779402645487</v>
       </c>
       <c r="T6">
-        <v>0.01874046424994716</v>
+        <v>0.2428779402645487</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>6.328443</v>
       </c>
       <c r="I7">
-        <v>0.2241393587371326</v>
+        <v>0.3901029163453022</v>
       </c>
       <c r="J7">
-        <v>0.2241393587371326</v>
+        <v>0.3901029163453023</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.018841</v>
+        <v>0.9510283333333334</v>
       </c>
       <c r="N7">
-        <v>6.056523</v>
+        <v>2.853085</v>
       </c>
       <c r="O7">
-        <v>0.01974604906989159</v>
+        <v>0.0692656964854011</v>
       </c>
       <c r="P7">
-        <v>0.01974604906989159</v>
+        <v>0.0692656964854011</v>
       </c>
       <c r="Q7">
-        <v>4.258706731521</v>
+        <v>2.006176199628333</v>
       </c>
       <c r="R7">
-        <v>38.328360583689</v>
+        <v>18.055585796655</v>
       </c>
       <c r="S7">
-        <v>0.004425866776117455</v>
+        <v>0.02702075020164352</v>
       </c>
       <c r="T7">
-        <v>0.004425866776117454</v>
+        <v>0.02702075020164352</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.778265</v>
+        <v>2.399397</v>
       </c>
       <c r="H8">
-        <v>8.334795</v>
+        <v>7.198191</v>
       </c>
       <c r="I8">
-        <v>0.2951998787862131</v>
+        <v>0.4437166142620716</v>
       </c>
       <c r="J8">
-        <v>0.2951998787862131</v>
+        <v>0.4437166142620716</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>91.67302333333333</v>
+        <v>4.230734666666667</v>
       </c>
       <c r="N8">
-        <v>275.01907</v>
+        <v>12.692204</v>
       </c>
       <c r="O8">
-        <v>0.8966431814716052</v>
+        <v>0.3081346507358854</v>
       </c>
       <c r="P8">
-        <v>0.896643181471605</v>
+        <v>0.3081346507358855</v>
       </c>
       <c r="Q8">
-        <v>254.6919521711833</v>
+        <v>10.151212066996</v>
       </c>
       <c r="R8">
-        <v>2292.22756954065</v>
+        <v>91.360908602964</v>
       </c>
       <c r="S8">
-        <v>0.2646889584849023</v>
+        <v>0.136724463961353</v>
       </c>
       <c r="T8">
-        <v>0.2646889584849023</v>
+        <v>0.136724463961353</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.778265</v>
+        <v>2.399397</v>
       </c>
       <c r="H9">
-        <v>8.334795</v>
+        <v>7.198191</v>
       </c>
       <c r="I9">
-        <v>0.2951998787862131</v>
+        <v>0.4437166142620716</v>
       </c>
       <c r="J9">
-        <v>0.2951998787862131</v>
+        <v>0.4437166142620716</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>25.645158</v>
       </c>
       <c r="O9">
-        <v>0.08361076945850333</v>
+        <v>0.6225996527787135</v>
       </c>
       <c r="P9">
-        <v>0.08361076945850332</v>
+        <v>0.6225996527787135</v>
       </c>
       <c r="Q9">
-        <v>23.74968163029</v>
+        <v>20.510971723242</v>
       </c>
       <c r="R9">
-        <v>213.74713467261</v>
+        <v>184.598745509178</v>
       </c>
       <c r="S9">
-        <v>0.02468188900937219</v>
+        <v>0.2762578099717122</v>
       </c>
       <c r="T9">
-        <v>0.02468188900937219</v>
+        <v>0.2762578099717122</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.778265</v>
+        <v>2.399397</v>
       </c>
       <c r="H10">
-        <v>8.334795</v>
+        <v>7.198191</v>
       </c>
       <c r="I10">
-        <v>0.2951998787862131</v>
+        <v>0.4437166142620716</v>
       </c>
       <c r="J10">
-        <v>0.2951998787862131</v>
+        <v>0.4437166142620716</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.018841</v>
+        <v>0.9510283333333334</v>
       </c>
       <c r="N10">
-        <v>6.056523</v>
+        <v>2.853085</v>
       </c>
       <c r="O10">
-        <v>0.01974604906989159</v>
+        <v>0.0692656964854011</v>
       </c>
       <c r="P10">
-        <v>0.01974604906989159</v>
+        <v>0.0692656964854011</v>
       </c>
       <c r="Q10">
-        <v>5.608875290865</v>
+        <v>2.281894529915</v>
       </c>
       <c r="R10">
-        <v>50.479877617785</v>
+        <v>20.537050769235</v>
       </c>
       <c r="S10">
-        <v>0.005829031291938614</v>
+        <v>0.03073434032900645</v>
       </c>
       <c r="T10">
-        <v>0.005829031291938613</v>
+        <v>0.03073434032900645</v>
       </c>
     </row>
   </sheetData>
